--- a/experiment result cnn/4096_0.9_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/4096_0.9_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02584291383016714</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01497702041765188</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.000199999995999e-05</v>
+        <v>0.003373126828021323</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.0007219719628043918</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0002202019795169908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>6.001799999675806e-05</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0003807214851549238</v>
+        <v>0.005111601922362277</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05192402619554078</v>
+        <v>0.004556586659654266</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.00590568575220447</v>
+        <v>0.0002001639997370472</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.00267389285394102</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.001799639171445e-05</v>
+        <v>0.004010019223058156</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.001364289065346508</v>
+        <v>0.003690349234525105</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0007221941780687525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.000901577681978007</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0003202399562145121</v>
+        <v>0.002080405752653476</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.01482485803427819</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.001795118548726991</v>
+        <v>0.0008230499067371112</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0001600999802448968</v>
+        <v>0.003382128294045344</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.00352685956484211</v>
+        <v>0.001585613800868176</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.000799999935975e-05</v>
+        <v>0.009186162247651026</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.007263453672466337</v>
+        <v>0.0003806499957857763</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.000199999995999e-05</v>
+        <v>0.004061615389431652</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05554193872436645</v>
+        <v>0.04195707475983575</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.005245297506600897</v>
+        <v>0.0002801719998518832</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.002999959763213305</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0001400979704125427</v>
+        <v>0.01593079911062401</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00160769091009838</v>
+        <v>0.004444911010431175</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0002803918012597746</v>
+        <v>0.0005003659994747576</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0002201379990344971</v>
+        <v>0.05670349234145235</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01308113147330626</v>
+        <v>0.001774797774008953</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>0.01122032418952607</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.006858256255693584</v>
+        <v>0.008512799369599904</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.009528170128155428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.002735290629038611</v>
+        <v>0.0002200899999467773</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0002001639509471351</v>
+        <v>0.0001200279999960778</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.000999899849938e-05</v>
+        <v>0.0003405779966477818</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0004605297808743678</v>
+        <v>6.001799999675806e-05</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.006317357353175549</v>
+        <v>0.0243384477144131</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.002332681449801649</v>
+        <v>0.0006213739816223398</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0007020638759171929</v>
+        <v>0.0001200239999980792</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0701398570954291</v>
+        <v>0.0002001159999005835</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.003917585050503354</v>
+        <v>0.001890699018245067</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.000199979985996e-05</v>
+        <v>0.0006218019674049768</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.001653096448211987</v>
+        <v>0.0787645541639814</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.000799919863942e-05</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.003644275664156239</v>
+        <v>0.002605791328686532</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0249055656326777</v>
+        <v>0.0004206579957851359</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0004811515212339712</v>
+        <v>8.001599999871949e-05</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0005406776372008136</v>
+        <v>0.004202365258946226</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0003405136880121226</v>
+        <v>0.0007425939323298491</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.004183888488936619</v>
+        <v>0.002462415033644977</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.02310725736067259</v>
+        <v>0.03665760008358206</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0002602498534845863</v>
+        <v>0.0002001359998352574</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.07308713952704153</v>
+        <v>0.0005213519816256618</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.003739525003986522</v>
+        <v>0.06409844680161005</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0004607417000393045</v>
+        <v>0.113564025742081</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.03514546281932036</v>
+        <v>0.02840253650355909</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>0.0369004773855359</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0006410235823042447</v>
+        <v>0.0011838419003121</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0001000499849404346</v>
+        <v>0.0102942302178235</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.000399979981995e-05</v>
+        <v>0.05303039849281588</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.002956572735561945</v>
+        <v>0.003171400304211913</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.004425256574331532</v>
+        <v>0.01679236712162647</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.000799999935975e-05</v>
+        <v>0.004894939259671965</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.001022504593800721</v>
+        <v>0.04752509357523543</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0003404578160118484</v>
+        <v>0.09103279446205464</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.05805893306626111</v>
+        <v>8.001999999671805e-05</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0001000259999961178</v>
+        <v>0.1112978969104162</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03799594273060748</v>
+        <v>0.002142466841899559</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0241042158422659</v>
+        <v>0.0005407779962469811</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.09211995288795226</v>
+        <v>0.01245975688130182</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.03430628666125681</v>
+        <v>0.01391665285920566</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0215699977084932</v>
+        <v>0.002471949194488337</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.001795088616368226</v>
+        <v>0.1117751186310743</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01501430257747161</v>
+        <v>0.0003602919995729448</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.006847354221705929</v>
+        <v>0.01957089642948889</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.009333372051652239</v>
+        <v>0.0001400979999038255</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0009442290723777759</v>
+        <v>0.02793104741420884</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.006940919688849552</v>
+        <v>0.1372528670874722</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.03311982633077588</v>
+        <v>0.02553407659955293</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.04585977543566078</v>
+        <v>0.0006820559577870252</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0964174779890177</v>
+        <v>0.02003813445351729</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.01250493608350861</v>
+        <v>0.1040365323343541</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01627996340361031</v>
+        <v>0.05984373752706024</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.000799839775891e-05</v>
+        <v>0.02873024050287332</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.004981743146625311</v>
+        <v>0.1497858917651501</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.001799999675806e-05</v>
+        <v>0.0242795106814571</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.004758408517607148</v>
+        <v>0.006823138159529495</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.05200521972658377</v>
+        <v>0.003490825608118539</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.001510363018990981</v>
+        <v>0.01818283395704381</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0922291960843141</v>
+        <v>0.009279383668602002</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.04595040972936532</v>
+        <v>0.07425926194504774</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1115115855917938</v>
+        <v>0.0008014679888351601</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.008224104725341769</v>
+        <v>0.09968878114178617</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0001600519917725978</v>
+        <v>0.01966799851465242</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.09849482188772643</v>
+        <v>0.1031588910247228</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08033800876593576</v>
+        <v>0.0008810679950964374</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.001021668856453718</v>
+        <v>0.06887373172444185</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.00306537053817312</v>
+        <v>0.01791506938354587</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.001937994149115253</v>
+        <v>0.09507529706667073</v>
       </c>
     </row>
   </sheetData>
